--- a/test/moira/moira.summary.xlsx
+++ b/test/moira/moira.summary.xlsx
@@ -1,14 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://broadridge-my.sharepoint.com/personal/john_nazareth_broadridge_com/Documents/personal/projects/gp/groupInXLS/test/moira/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_804BC884767A529D79F07CBA23E3F12D5AF02D7C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F203473-7B86-435D-913F-4BC05A7459A4}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView minimized="1" xWindow="3972" yWindow="1404" windowWidth="12144" windowHeight="11424" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="XRates" r:id="rId3" sheetId="1"/>
-    <sheet name="Summary" r:id="rId4" sheetId="2"/>
+    <sheet name="XRates" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -201,15 +222,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="$#,##0.00_);[Red]($#,##0.00)"/>
-    <numFmt numFmtId="165" formatCode="[$INR] #,##0.00_);[Red]([$INR] #,##0.00)"/>
-    <numFmt numFmtId="166" formatCode="_($* #,##0.00_);_($* (#,##0.00);_($* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="[$INR]\ #,##0.00_);[Red]\([$INR]\ #,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -221,7 +242,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -236,50 +257,332 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -290,7 +593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -301,7 +604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -312,7 +615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -323,7 +626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -334,7 +637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -345,7 +648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -356,7 +659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -367,7 +670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -378,7 +681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -390,19 +693,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="15.77734375" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="I1" t="s">
         <v>6</v>
       </c>
@@ -416,7 +725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -484,7 +793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -497,8 +806,8 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="n" s="1">
-        <v>75.04</v>
+      <c r="E3" s="1">
+        <v>75.040000000000006</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -506,50 +815,50 @@
       <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="n" s="1">
+      <c r="I3" s="1">
         <v>25.01</v>
       </c>
-      <c r="J3" t="n" s="1">
+      <c r="J3" s="1">
         <v>25.01</v>
       </c>
-      <c r="K3" t="n" s="1">
+      <c r="K3" s="1">
         <v>25.01</v>
       </c>
-      <c r="L3" t="n" s="1">
+      <c r="L3" s="1">
         <v>-31.45</v>
       </c>
-      <c r="M3" t="n" s="1">
+      <c r="M3" s="1">
         <v>-31.45</v>
       </c>
-      <c r="N3" t="n" s="1">
+      <c r="N3" s="1">
         <v>62.89</v>
       </c>
-      <c r="O3" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="P3" t="n" s="1">
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
         <v>31.45</v>
       </c>
-      <c r="Q3" t="n" s="1">
+      <c r="Q3" s="1">
         <v>31.45</v>
       </c>
-      <c r="R3" t="n" s="1">
-        <v>38.45</v>
-      </c>
-      <c r="S3" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="T3" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U3" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="V3" t="n" s="1">
+      <c r="R3" s="1">
+        <v>38.450000000000003</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
         <v>101.34</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -562,7 +871,7 @@
       <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" t="n" s="2">
+      <c r="E4" s="1">
         <v>14.125</v>
       </c>
       <c r="F4" t="s">
@@ -571,50 +880,50 @@
       <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" t="n" s="2">
+      <c r="I4" s="1">
         <v>4.71</v>
       </c>
-      <c r="J4" t="n" s="2">
+      <c r="J4" s="1">
         <v>4.71</v>
       </c>
-      <c r="K4" t="n" s="2">
+      <c r="K4" s="1">
         <v>4.71</v>
       </c>
-      <c r="L4" t="n" s="2">
+      <c r="L4" s="1">
         <v>-23.91</v>
       </c>
-      <c r="M4" t="n" s="2">
+      <c r="M4" s="1">
         <v>-23.91</v>
       </c>
-      <c r="N4" t="n" s="2">
+      <c r="N4" s="1">
         <v>47.82</v>
       </c>
-      <c r="O4" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="P4" t="n" s="2">
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
         <v>23.91</v>
       </c>
-      <c r="Q4" t="n" s="2">
+      <c r="Q4" s="1">
         <v>23.91</v>
       </c>
-      <c r="R4" t="n" s="2">
+      <c r="R4" s="1">
         <v>23.91</v>
       </c>
-      <c r="S4" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="T4" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="U4" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="V4" t="n" s="2">
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
         <v>71.72</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -627,8 +936,8 @@
       <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" t="n" s="3">
-        <v>3000.0</v>
+      <c r="E5" s="2">
+        <v>3000</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -636,50 +945,50 @@
       <c r="G5" t="s">
         <v>27</v>
       </c>
-      <c r="I5" t="n" s="3">
-        <v>1000.0</v>
-      </c>
-      <c r="J5" t="n" s="3">
-        <v>1000.0</v>
-      </c>
-      <c r="K5" t="n" s="3">
-        <v>1000.0</v>
-      </c>
-      <c r="L5" t="n" s="3">
+      <c r="I5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L5" s="2">
         <v>-21133.5</v>
       </c>
-      <c r="M5" t="n" s="3">
-        <v>1853.0</v>
-      </c>
-      <c r="N5" t="n" s="3">
+      <c r="M5" s="2">
+        <v>1853</v>
+      </c>
+      <c r="N5" s="2">
         <v>19280.5</v>
       </c>
-      <c r="O5" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="P5" t="n" s="3">
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
         <v>21133.5</v>
       </c>
-      <c r="Q5" t="n" s="3">
-        <v>19882.0</v>
-      </c>
-      <c r="R5" t="n" s="3">
+      <c r="Q5" s="2">
+        <v>19882</v>
+      </c>
+      <c r="R5" s="2">
         <v>21133.5</v>
       </c>
-      <c r="S5" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="T5" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="U5" t="n" s="3">
-        <v>16735.0</v>
-      </c>
-      <c r="V5" t="n" s="3">
-        <v>45414.0</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <v>16735</v>
+      </c>
+      <c r="V5" s="2">
+        <v>45414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -692,8 +1001,8 @@
       <c r="D6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="n" s="4">
-        <v>1500.0</v>
+      <c r="E6" s="2">
+        <v>1500</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -701,50 +1010,50 @@
       <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="I6" t="n" s="4">
-        <v>500.0</v>
-      </c>
-      <c r="J6" t="n" s="4">
-        <v>500.0</v>
-      </c>
-      <c r="K6" t="n" s="4">
-        <v>500.0</v>
-      </c>
-      <c r="L6" t="n" s="4">
+      <c r="I6" s="2">
+        <v>500</v>
+      </c>
+      <c r="J6" s="2">
+        <v>500</v>
+      </c>
+      <c r="K6" s="2">
+        <v>500</v>
+      </c>
+      <c r="L6" s="2">
         <v>23833.33</v>
       </c>
-      <c r="M6" t="n" s="4">
+      <c r="M6" s="2">
         <v>4833.33</v>
       </c>
-      <c r="N6" t="n" s="4">
+      <c r="N6" s="2">
         <v>-28666.67</v>
       </c>
-      <c r="O6" t="n" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="P6" t="n" s="4">
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
         <v>2166.67</v>
       </c>
-      <c r="Q6" t="n" s="4">
+      <c r="Q6" s="2">
         <v>2166.67</v>
       </c>
-      <c r="R6" t="n" s="4">
+      <c r="R6" s="2">
         <v>2166.67</v>
       </c>
-      <c r="S6" t="n" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="T6" t="n" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="U6" t="n" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="V6" t="n" s="4">
-        <v>6500.0</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -757,8 +1066,8 @@
       <c r="D7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" t="n" s="5">
-        <v>2000.0</v>
+      <c r="E7" s="2">
+        <v>2000</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -766,50 +1075,50 @@
       <c r="G7" t="s">
         <v>18</v>
       </c>
-      <c r="I7" t="n" s="5">
-        <v>2000.0</v>
-      </c>
-      <c r="J7" t="n" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K7" t="n" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L7" t="n" s="5">
-        <v>-1250.0</v>
-      </c>
-      <c r="M7" t="n" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N7" t="n" s="5">
-        <v>1250.0</v>
-      </c>
-      <c r="O7" t="n" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="P7" t="n" s="5">
-        <v>3250.0</v>
-      </c>
-      <c r="Q7" t="n" s="5">
-        <v>1250.0</v>
-      </c>
-      <c r="R7" t="n" s="5">
-        <v>1250.0</v>
-      </c>
-      <c r="S7" t="n" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="T7" t="n" s="5">
-        <v>2000.0</v>
-      </c>
-      <c r="U7" t="n" s="5">
-        <v>1250.0</v>
-      </c>
-      <c r="V7" t="n" s="5">
-        <v>2500.0</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="I7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>-1250</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1250</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>3250</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1250</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1250</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="U7" s="2">
+        <v>1250</v>
+      </c>
+      <c r="V7" s="2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -822,8 +1131,8 @@
       <c r="D8" t="s">
         <v>43</v>
       </c>
-      <c r="E8" t="n" s="6">
-        <v>5900.0</v>
+      <c r="E8" s="2">
+        <v>5900</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
@@ -834,50 +1143,50 @@
       <c r="H8" t="s">
         <v>44</v>
       </c>
-      <c r="I8" t="n" s="6">
+      <c r="I8" s="2">
         <v>1966.67</v>
       </c>
-      <c r="J8" t="n" s="6">
+      <c r="J8" s="2">
         <v>1966.67</v>
       </c>
-      <c r="K8" t="n" s="6">
+      <c r="K8" s="2">
         <v>1966.67</v>
       </c>
-      <c r="L8" t="n" s="6">
+      <c r="L8" s="2">
         <v>-1966.67</v>
       </c>
-      <c r="M8" t="n" s="6">
+      <c r="M8" s="2">
         <v>3933.33</v>
       </c>
-      <c r="N8" t="n" s="6">
+      <c r="N8" s="2">
         <v>-1966.67</v>
       </c>
-      <c r="O8" t="n" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="P8" t="n" s="6">
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
         <v>1966.67</v>
       </c>
-      <c r="Q8" t="n" s="6">
+      <c r="Q8" s="2">
         <v>1966.67</v>
       </c>
-      <c r="R8" t="n" s="6">
+      <c r="R8" s="2">
         <v>1966.67</v>
       </c>
-      <c r="S8" t="n" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="T8" t="n" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="U8" t="n" s="6">
-        <v>5900.0</v>
-      </c>
-      <c r="V8" t="n" s="6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>5900</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -890,8 +1199,8 @@
       <c r="D9" t="s">
         <v>48</v>
       </c>
-      <c r="E9" t="n" s="7">
-        <v>9530.0</v>
+      <c r="E9" s="2">
+        <v>9530</v>
       </c>
       <c r="F9" t="s">
         <v>49</v>
@@ -902,50 +1211,50 @@
       <c r="H9" t="s">
         <v>51</v>
       </c>
-      <c r="I9" t="n" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="J9" t="n" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="K9" t="n" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="L9" t="n" s="7">
-        <v>4604.0</v>
-      </c>
-      <c r="M9" t="n" s="7">
-        <v>-6533.0</v>
-      </c>
-      <c r="N9" t="n" s="7">
-        <v>1929.0</v>
-      </c>
-      <c r="O9" t="n" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="P9" t="n" s="7">
-        <v>4926.0</v>
-      </c>
-      <c r="Q9" t="n" s="7">
-        <v>4926.0</v>
-      </c>
-      <c r="R9" t="n" s="7">
-        <v>4926.0</v>
-      </c>
-      <c r="S9" t="n" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="T9" t="n" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="U9" t="n" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="V9" t="n" s="7">
-        <v>14778.0</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>4604</v>
+      </c>
+      <c r="M9" s="2">
+        <v>-6533</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1929</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>4926</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>4926</v>
+      </c>
+      <c r="R9" s="2">
+        <v>4926</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>14778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -958,8 +1267,8 @@
       <c r="D10" t="s">
         <v>55</v>
       </c>
-      <c r="E10" t="n" s="8">
-        <v>120.0</v>
+      <c r="E10" s="2">
+        <v>120</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
@@ -967,50 +1276,50 @@
       <c r="G10" t="s">
         <v>27</v>
       </c>
-      <c r="I10" t="n" s="8">
-        <v>40.0</v>
-      </c>
-      <c r="J10" t="n" s="8">
-        <v>40.0</v>
-      </c>
-      <c r="K10" t="n" s="8">
-        <v>40.0</v>
-      </c>
-      <c r="L10" t="n" s="8">
+      <c r="I10" s="2">
+        <v>40</v>
+      </c>
+      <c r="J10" s="2">
+        <v>40</v>
+      </c>
+      <c r="K10" s="2">
+        <v>40</v>
+      </c>
+      <c r="L10" s="2">
         <v>5572.83</v>
       </c>
-      <c r="M10" t="n" s="8">
+      <c r="M10" s="2">
         <v>4392.33</v>
       </c>
-      <c r="N10" t="n" s="8">
+      <c r="N10" s="2">
         <v>-9965.17</v>
       </c>
-      <c r="O10" t="n" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="P10" t="n" s="8">
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
         <v>9760.17</v>
       </c>
-      <c r="Q10" t="n" s="8">
+      <c r="Q10" s="2">
         <v>9333.67</v>
       </c>
-      <c r="R10" t="n" s="8">
+      <c r="R10" s="2">
         <v>9760.17</v>
       </c>
-      <c r="S10" t="n" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="T10" t="n" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="U10" t="n" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="V10" t="n" s="8">
-        <v>28854.0</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <v>28854</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1023,7 +1332,7 @@
       <c r="D11" t="s">
         <v>59</v>
       </c>
-      <c r="E11" t="n" s="9">
+      <c r="E11" s="3">
         <v>72.48</v>
       </c>
       <c r="F11" t="s">
@@ -1035,55 +1344,55 @@
       <c r="H11" t="s">
         <v>60</v>
       </c>
-      <c r="I11" t="n" s="9">
+      <c r="I11" s="3">
         <v>24.16</v>
       </c>
-      <c r="J11" t="n" s="9">
+      <c r="J11" s="3">
         <v>24.16</v>
       </c>
-      <c r="K11" t="n" s="9">
+      <c r="K11" s="3">
         <v>24.16</v>
       </c>
-      <c r="L11" t="n" s="9">
+      <c r="L11" s="3">
         <v>-24.16</v>
       </c>
-      <c r="M11" t="n" s="9">
+      <c r="M11" s="3">
         <v>-24.16</v>
       </c>
-      <c r="N11" t="n" s="9">
+      <c r="N11" s="3">
         <v>48.32</v>
       </c>
-      <c r="O11" t="n" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="P11" t="n" s="9">
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
         <v>24.16</v>
       </c>
-      <c r="Q11" t="n" s="9">
+      <c r="Q11" s="3">
         <v>24.16</v>
       </c>
-      <c r="R11" t="n" s="9">
+      <c r="R11" s="3">
         <v>24.16</v>
       </c>
-      <c r="S11" t="n" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T11" t="n" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U11" t="n" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V11" t="n" s="9">
+      <c r="S11" s="3">
+        <v>0</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0</v>
+      </c>
+      <c r="V11" s="3">
         <v>72.48</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1096,8 +1405,9 @@
       <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="1">
         <f>Summary!E3*XRates!B2</f>
+        <v>75.040000000000006</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -1105,50 +1415,64 @@
       <c r="G14" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="1">
         <f>Summary!I3*XRates!B2</f>
-      </c>
-      <c r="J14" s="10">
+        <v>25.01</v>
+      </c>
+      <c r="J14" s="1">
         <f>Summary!J3*XRates!B2</f>
-      </c>
-      <c r="K14" s="10">
+        <v>25.01</v>
+      </c>
+      <c r="K14" s="1">
         <f>Summary!K3*XRates!B2</f>
-      </c>
-      <c r="L14" s="10">
+        <v>25.01</v>
+      </c>
+      <c r="L14" s="1">
         <f>Summary!L3*XRates!B2</f>
-      </c>
-      <c r="M14" s="10">
+        <v>-31.45</v>
+      </c>
+      <c r="M14" s="1">
         <f>Summary!M3*XRates!B2</f>
-      </c>
-      <c r="N14" s="10">
+        <v>-31.45</v>
+      </c>
+      <c r="N14" s="1">
         <f>Summary!N3*XRates!B2</f>
-      </c>
-      <c r="O14" s="10">
+        <v>62.89</v>
+      </c>
+      <c r="O14" s="1">
         <f>Summary!O3*XRates!B2</f>
-      </c>
-      <c r="P14" s="10">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <f>Summary!P3*XRates!B2</f>
-      </c>
-      <c r="Q14" s="10">
+        <v>31.45</v>
+      </c>
+      <c r="Q14" s="1">
         <f>Summary!Q3*XRates!B2</f>
-      </c>
-      <c r="R14" s="10">
+        <v>31.45</v>
+      </c>
+      <c r="R14" s="1">
         <f>Summary!R3*XRates!B2</f>
-      </c>
-      <c r="S14" s="10">
+        <v>38.450000000000003</v>
+      </c>
+      <c r="S14" s="1">
         <f>Summary!S3*XRates!B2</f>
-      </c>
-      <c r="T14" s="10">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
         <f>Summary!T3*XRates!B2</f>
-      </c>
-      <c r="U14" s="10">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
         <f>Summary!U3*XRates!B2</f>
-      </c>
-      <c r="V14" s="10">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
         <f>Summary!V3*XRates!B2</f>
-      </c>
-    </row>
-    <row r="15">
+        <v>101.34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1161,8 +1485,9 @@
       <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="1">
         <f>Summary!E4*XRates!B3</f>
+        <v>14.125</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -1170,50 +1495,64 @@
       <c r="G15" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="1">
         <f>Summary!I4*XRates!B3</f>
-      </c>
-      <c r="J15" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="J15" s="1">
         <f>Summary!J4*XRates!B3</f>
-      </c>
-      <c r="K15" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="K15" s="1">
         <f>Summary!K4*XRates!B3</f>
-      </c>
-      <c r="L15" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="L15" s="1">
         <f>Summary!L4*XRates!B3</f>
-      </c>
-      <c r="M15" s="11">
+        <v>-23.91</v>
+      </c>
+      <c r="M15" s="1">
         <f>Summary!M4*XRates!B3</f>
-      </c>
-      <c r="N15" s="11">
+        <v>-23.91</v>
+      </c>
+      <c r="N15" s="1">
         <f>Summary!N4*XRates!B3</f>
-      </c>
-      <c r="O15" s="11">
+        <v>47.82</v>
+      </c>
+      <c r="O15" s="1">
         <f>Summary!O4*XRates!B3</f>
-      </c>
-      <c r="P15" s="11">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
         <f>Summary!P4*XRates!B3</f>
-      </c>
-      <c r="Q15" s="11">
+        <v>23.91</v>
+      </c>
+      <c r="Q15" s="1">
         <f>Summary!Q4*XRates!B3</f>
-      </c>
-      <c r="R15" s="11">
+        <v>23.91</v>
+      </c>
+      <c r="R15" s="1">
         <f>Summary!R4*XRates!B3</f>
-      </c>
-      <c r="S15" s="11">
+        <v>23.91</v>
+      </c>
+      <c r="S15" s="1">
         <f>Summary!S4*XRates!B3</f>
-      </c>
-      <c r="T15" s="11">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
         <f>Summary!T4*XRates!B3</f>
-      </c>
-      <c r="U15" s="11">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
         <f>Summary!U4*XRates!B3</f>
-      </c>
-      <c r="V15" s="11">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
         <f>Summary!V4*XRates!B3</f>
-      </c>
-    </row>
-    <row r="16">
+        <v>71.72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1226,8 +1565,9 @@
       <c r="D16" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="1">
         <f>Summary!E5*XRates!B4</f>
+        <v>42.297435</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
@@ -1235,50 +1575,64 @@
       <c r="G16" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="1">
         <f>Summary!I5*XRates!B4</f>
-      </c>
-      <c r="J16" s="12">
+        <v>14.099145</v>
+      </c>
+      <c r="J16" s="1">
         <f>Summary!J5*XRates!B4</f>
-      </c>
-      <c r="K16" s="12">
+        <v>14.099145</v>
+      </c>
+      <c r="K16" s="1">
         <f>Summary!K5*XRates!B4</f>
-      </c>
-      <c r="L16" s="12">
+        <v>14.099145</v>
+      </c>
+      <c r="L16" s="1">
         <f>Summary!L5*XRates!B4</f>
-      </c>
-      <c r="M16" s="12">
+        <v>-297.9642808575</v>
+      </c>
+      <c r="M16" s="1">
         <f>Summary!M5*XRates!B4</f>
-      </c>
-      <c r="N16" s="12">
+        <v>26.125715684999999</v>
+      </c>
+      <c r="N16" s="1">
         <f>Summary!N5*XRates!B4</f>
-      </c>
-      <c r="O16" s="12">
+        <v>271.83856517250001</v>
+      </c>
+      <c r="O16" s="1">
         <f>Summary!O5*XRates!B4</f>
-      </c>
-      <c r="P16" s="12">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
         <f>Summary!P5*XRates!B4</f>
-      </c>
-      <c r="Q16" s="12">
+        <v>297.9642808575</v>
+      </c>
+      <c r="Q16" s="1">
         <f>Summary!Q5*XRates!B4</f>
-      </c>
-      <c r="R16" s="12">
+        <v>280.31920088999999</v>
+      </c>
+      <c r="R16" s="1">
         <f>Summary!R5*XRates!B4</f>
-      </c>
-      <c r="S16" s="12">
+        <v>297.9642808575</v>
+      </c>
+      <c r="S16" s="1">
         <f>Summary!S5*XRates!B4</f>
-      </c>
-      <c r="T16" s="12">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
         <f>Summary!T5*XRates!B4</f>
-      </c>
-      <c r="U16" s="12">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
         <f>Summary!U5*XRates!B4</f>
-      </c>
-      <c r="V16" s="12">
+        <v>235.94919157500001</v>
+      </c>
+      <c r="V16" s="1">
         <f>Summary!V5*XRates!B4</f>
-      </c>
-    </row>
-    <row r="17">
+        <v>640.29857103000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1291,8 +1645,9 @@
       <c r="D17" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="1">
         <f>Summary!E6*XRates!B5</f>
+        <v>21.1487175</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
@@ -1300,50 +1655,64 @@
       <c r="G17" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="1">
         <f>Summary!I6*XRates!B5</f>
-      </c>
-      <c r="J17" s="13">
+        <v>7.0495725</v>
+      </c>
+      <c r="J17" s="1">
         <f>Summary!J6*XRates!B5</f>
-      </c>
-      <c r="K17" s="13">
+        <v>7.0495725</v>
+      </c>
+      <c r="K17" s="1">
         <f>Summary!K6*XRates!B5</f>
-      </c>
-      <c r="L17" s="13">
+        <v>7.0495725</v>
+      </c>
+      <c r="L17" s="1">
         <f>Summary!L6*XRates!B5</f>
-      </c>
-      <c r="M17" s="13">
+        <v>336.02957550285004</v>
+      </c>
+      <c r="M17" s="1">
         <f>Summary!M6*XRates!B5</f>
-      </c>
-      <c r="N17" s="13">
+        <v>68.14582050285</v>
+      </c>
+      <c r="N17" s="1">
         <f>Summary!N6*XRates!B5</f>
-      </c>
-      <c r="O17" s="13">
+        <v>-404.17553699715</v>
+      </c>
+      <c r="O17" s="1">
         <f>Summary!O6*XRates!B5</f>
-      </c>
-      <c r="P17" s="13">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
         <f>Summary!P6*XRates!B5</f>
-      </c>
-      <c r="Q17" s="13">
+        <v>30.548194497150003</v>
+      </c>
+      <c r="Q17" s="1">
         <f>Summary!Q6*XRates!B5</f>
-      </c>
-      <c r="R17" s="13">
+        <v>30.548194497150003</v>
+      </c>
+      <c r="R17" s="1">
         <f>Summary!R6*XRates!B5</f>
-      </c>
-      <c r="S17" s="13">
+        <v>30.548194497150003</v>
+      </c>
+      <c r="S17" s="1">
         <f>Summary!S6*XRates!B5</f>
-      </c>
-      <c r="T17" s="13">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
         <f>Summary!T6*XRates!B5</f>
-      </c>
-      <c r="U17" s="13">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
         <f>Summary!U6*XRates!B5</f>
-      </c>
-      <c r="V17" s="13">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
         <f>Summary!V6*XRates!B5</f>
-      </c>
-    </row>
-    <row r="18">
+        <v>91.644442499999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1356,8 +1725,9 @@
       <c r="D18" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="1">
         <f>Summary!E7*XRates!B6</f>
+        <v>28.19829</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -1365,50 +1735,64 @@
       <c r="G18" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="1">
         <f>Summary!I7*XRates!B6</f>
-      </c>
-      <c r="J18" s="14">
+        <v>28.19829</v>
+      </c>
+      <c r="J18" s="1">
         <f>Summary!J7*XRates!B6</f>
-      </c>
-      <c r="K18" s="14">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
         <f>Summary!K7*XRates!B6</f>
-      </c>
-      <c r="L18" s="14">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
         <f>Summary!L7*XRates!B6</f>
-      </c>
-      <c r="M18" s="14">
+        <v>-17.623931250000002</v>
+      </c>
+      <c r="M18" s="1">
         <f>Summary!M7*XRates!B6</f>
-      </c>
-      <c r="N18" s="14">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
         <f>Summary!N7*XRates!B6</f>
-      </c>
-      <c r="O18" s="14">
+        <v>17.623931250000002</v>
+      </c>
+      <c r="O18" s="1">
         <f>Summary!O7*XRates!B6</f>
-      </c>
-      <c r="P18" s="14">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
         <f>Summary!P7*XRates!B6</f>
-      </c>
-      <c r="Q18" s="14">
+        <v>45.822221249999998</v>
+      </c>
+      <c r="Q18" s="1">
         <f>Summary!Q7*XRates!B6</f>
-      </c>
-      <c r="R18" s="14">
+        <v>17.623931250000002</v>
+      </c>
+      <c r="R18" s="1">
         <f>Summary!R7*XRates!B6</f>
-      </c>
-      <c r="S18" s="14">
+        <v>17.623931250000002</v>
+      </c>
+      <c r="S18" s="1">
         <f>Summary!S7*XRates!B6</f>
-      </c>
-      <c r="T18" s="14">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
         <f>Summary!T7*XRates!B6</f>
-      </c>
-      <c r="U18" s="14">
+        <v>28.19829</v>
+      </c>
+      <c r="U18" s="1">
         <f>Summary!U7*XRates!B6</f>
-      </c>
-      <c r="V18" s="14">
+        <v>17.623931250000002</v>
+      </c>
+      <c r="V18" s="1">
         <f>Summary!V7*XRates!B6</f>
-      </c>
-    </row>
-    <row r="19">
+        <v>35.247862500000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1421,8 +1805,9 @@
       <c r="D19" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="1">
         <f>Summary!E8*XRates!B7</f>
+        <v>83.184955500000001</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -1433,50 +1818,64 @@
       <c r="H19" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="1">
         <f>Summary!I8*XRates!B7</f>
-      </c>
-      <c r="J19" s="15">
+        <v>27.728365497150001</v>
+      </c>
+      <c r="J19" s="1">
         <f>Summary!J8*XRates!B7</f>
-      </c>
-      <c r="K19" s="15">
+        <v>27.728365497150001</v>
+      </c>
+      <c r="K19" s="1">
         <f>Summary!K8*XRates!B7</f>
-      </c>
-      <c r="L19" s="15">
+        <v>27.728365497150001</v>
+      </c>
+      <c r="L19" s="1">
         <f>Summary!L8*XRates!B7</f>
-      </c>
-      <c r="M19" s="15">
+        <v>-27.728365497150001</v>
+      </c>
+      <c r="M19" s="1">
         <f>Summary!M8*XRates!B7</f>
-      </c>
-      <c r="N19" s="15">
+        <v>55.45659000285</v>
+      </c>
+      <c r="N19" s="1">
         <f>Summary!N8*XRates!B7</f>
-      </c>
-      <c r="O19" s="15">
+        <v>-27.728365497150001</v>
+      </c>
+      <c r="O19" s="1">
         <f>Summary!O8*XRates!B7</f>
-      </c>
-      <c r="P19" s="15">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
         <f>Summary!P8*XRates!B7</f>
-      </c>
-      <c r="Q19" s="15">
+        <v>27.728365497150001</v>
+      </c>
+      <c r="Q19" s="1">
         <f>Summary!Q8*XRates!B7</f>
-      </c>
-      <c r="R19" s="15">
+        <v>27.728365497150001</v>
+      </c>
+      <c r="R19" s="1">
         <f>Summary!R8*XRates!B7</f>
-      </c>
-      <c r="S19" s="15">
+        <v>27.728365497150001</v>
+      </c>
+      <c r="S19" s="1">
         <f>Summary!S8*XRates!B7</f>
-      </c>
-      <c r="T19" s="15">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
         <f>Summary!T8*XRates!B7</f>
-      </c>
-      <c r="U19" s="15">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
         <f>Summary!U8*XRates!B7</f>
-      </c>
-      <c r="V19" s="15">
+        <v>83.184955500000001</v>
+      </c>
+      <c r="V19" s="1">
         <f>Summary!V8*XRates!B7</f>
-      </c>
-    </row>
-    <row r="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -1489,8 +1888,9 @@
       <c r="D20" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="1">
         <f>Summary!E9*XRates!B8</f>
+        <v>134.36485185000001</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
@@ -1501,50 +1901,64 @@
       <c r="H20" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="1">
         <f>Summary!I9*XRates!B8</f>
-      </c>
-      <c r="J20" s="16">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
         <f>Summary!J9*XRates!B8</f>
-      </c>
-      <c r="K20" s="16">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
         <f>Summary!K9*XRates!B8</f>
-      </c>
-      <c r="L20" s="16">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
         <f>Summary!L9*XRates!B8</f>
-      </c>
-      <c r="M20" s="16">
+        <v>64.912463580000008</v>
+      </c>
+      <c r="M20" s="1">
         <f>Summary!M9*XRates!B8</f>
-      </c>
-      <c r="N20" s="16">
+        <v>-92.10971428500001</v>
+      </c>
+      <c r="N20" s="1">
         <f>Summary!N9*XRates!B8</f>
-      </c>
-      <c r="O20" s="16">
+        <v>27.197250705000002</v>
+      </c>
+      <c r="O20" s="1">
         <f>Summary!O9*XRates!B8</f>
-      </c>
-      <c r="P20" s="16">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
         <f>Summary!P9*XRates!B8</f>
-      </c>
-      <c r="Q20" s="16">
+        <v>69.45238827</v>
+      </c>
+      <c r="Q20" s="1">
         <f>Summary!Q9*XRates!B8</f>
-      </c>
-      <c r="R20" s="16">
+        <v>69.45238827</v>
+      </c>
+      <c r="R20" s="1">
         <f>Summary!R9*XRates!B8</f>
-      </c>
-      <c r="S20" s="16">
+        <v>69.45238827</v>
+      </c>
+      <c r="S20" s="1">
         <f>Summary!S9*XRates!B8</f>
-      </c>
-      <c r="T20" s="16">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
         <f>Summary!T9*XRates!B8</f>
-      </c>
-      <c r="U20" s="16">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
         <f>Summary!U9*XRates!B8</f>
-      </c>
-      <c r="V20" s="16">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1">
         <f>Summary!V9*XRates!B8</f>
-      </c>
-    </row>
-    <row r="21">
+        <v>208.35716481</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -1557,8 +1971,9 @@
       <c r="D21" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="1">
         <f>Summary!E10*XRates!B9</f>
+        <v>1.6918974</v>
       </c>
       <c r="F21" t="s">
         <v>20</v>
@@ -1566,50 +1981,64 @@
       <c r="G21" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="1">
         <f>Summary!I10*XRates!B9</f>
-      </c>
-      <c r="J21" s="17">
+        <v>0.56396580000000007</v>
+      </c>
+      <c r="J21" s="1">
         <f>Summary!J10*XRates!B9</f>
-      </c>
-      <c r="K21" s="17">
+        <v>0.56396580000000007</v>
+      </c>
+      <c r="K21" s="1">
         <f>Summary!K10*XRates!B9</f>
-      </c>
-      <c r="L21" s="17">
+        <v>0.56396580000000007</v>
+      </c>
+      <c r="L21" s="1">
         <f>Summary!L10*XRates!B9</f>
-      </c>
-      <c r="M21" s="17">
+        <v>78.572138230350006</v>
+      </c>
+      <c r="M21" s="1">
         <f>Summary!M10*XRates!B9</f>
-      </c>
-      <c r="N21" s="17">
+        <v>61.928097557850002</v>
+      </c>
+      <c r="N21" s="1">
         <f>Summary!N10*XRates!B9</f>
-      </c>
-      <c r="O21" s="17">
+        <v>-140.50037677965</v>
+      </c>
+      <c r="O21" s="1">
         <f>Summary!O10*XRates!B9</f>
-      </c>
-      <c r="P21" s="17">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
         <f>Summary!P10*XRates!B9</f>
-      </c>
-      <c r="Q21" s="17">
+        <v>137.61005205465</v>
+      </c>
+      <c r="Q21" s="1">
         <f>Summary!Q10*XRates!B9</f>
-      </c>
-      <c r="R21" s="17">
+        <v>131.59676671215001</v>
+      </c>
+      <c r="R21" s="1">
         <f>Summary!R10*XRates!B9</f>
-      </c>
-      <c r="S21" s="17">
+        <v>137.61005205465</v>
+      </c>
+      <c r="S21" s="1">
         <f>Summary!S10*XRates!B9</f>
-      </c>
-      <c r="T21" s="17">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
         <f>Summary!T10*XRates!B9</f>
-      </c>
-      <c r="U21" s="17">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
         <f>Summary!U10*XRates!B9</f>
-      </c>
-      <c r="V21" s="17">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
         <f>Summary!V10*XRates!B9</f>
-      </c>
-    </row>
-    <row r="22">
+        <v>406.81672982999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -1622,8 +2051,9 @@
       <c r="D22" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="1">
         <f>Summary!E11*XRates!B10</f>
+        <v>72.48</v>
       </c>
       <c r="F22" t="s">
         <v>20</v>
@@ -1634,107 +2064,127 @@
       <c r="H22" t="s">
         <v>60</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="1">
         <f>Summary!I11*XRates!B10</f>
-      </c>
-      <c r="J22" s="18">
+        <v>24.16</v>
+      </c>
+      <c r="J22" s="1">
         <f>Summary!J11*XRates!B10</f>
-      </c>
-      <c r="K22" s="18">
+        <v>24.16</v>
+      </c>
+      <c r="K22" s="1">
         <f>Summary!K11*XRates!B10</f>
-      </c>
-      <c r="L22" s="18">
+        <v>24.16</v>
+      </c>
+      <c r="L22" s="1">
         <f>Summary!L11*XRates!B10</f>
-      </c>
-      <c r="M22" s="18">
+        <v>-24.16</v>
+      </c>
+      <c r="M22" s="1">
         <f>Summary!M11*XRates!B10</f>
-      </c>
-      <c r="N22" s="18">
+        <v>-24.16</v>
+      </c>
+      <c r="N22" s="1">
         <f>Summary!N11*XRates!B10</f>
-      </c>
-      <c r="O22" s="18">
+        <v>48.32</v>
+      </c>
+      <c r="O22" s="1">
         <f>Summary!O11*XRates!B10</f>
-      </c>
-      <c r="P22" s="18">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
         <f>Summary!P11*XRates!B10</f>
-      </c>
-      <c r="Q22" s="18">
+        <v>24.16</v>
+      </c>
+      <c r="Q22" s="1">
         <f>Summary!Q11*XRates!B10</f>
-      </c>
-      <c r="R22" s="18">
+        <v>24.16</v>
+      </c>
+      <c r="R22" s="1">
         <f>Summary!R11*XRates!B10</f>
-      </c>
-      <c r="S22" s="18">
+        <v>24.16</v>
+      </c>
+      <c r="S22" s="1">
         <f>Summary!S11*XRates!B10</f>
-      </c>
-      <c r="T22" s="18">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
         <f>Summary!T11*XRates!B10</f>
-      </c>
-      <c r="U22" s="18">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
         <f>Summary!U11*XRates!B10</f>
-      </c>
-      <c r="V22" s="18">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1">
         <f>Summary!V11*XRates!B10</f>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23" s="19">
-        <f>SUM(I14:I22)</f>
-      </c>
-      <c r="J23" s="19">
-        <f>SUM(J14:J22)</f>
-      </c>
-      <c r="K23" s="19">
-        <f>SUM(K14:K22)</f>
-      </c>
-      <c r="L23" s="19">
-        <f>SUM(L14:L22)</f>
-      </c>
-      <c r="M23" s="19">
-        <f>SUM(M14:M22)</f>
-      </c>
-      <c r="N23" s="19">
-        <f>SUM(N14:N22)</f>
-      </c>
-      <c r="O23" s="19">
-        <f>SUM(O14:O22)</f>
-      </c>
-      <c r="P23" s="19">
-        <f>SUM(P14:P22)</f>
-      </c>
-      <c r="Q23" s="19">
-        <f>SUM(Q14:Q22)</f>
-      </c>
-      <c r="R23" s="19">
-        <f>SUM(R14:R22)</f>
-      </c>
-      <c r="S23" s="19">
-        <f>SUM(S14:S22)</f>
-      </c>
-      <c r="T23" s="19">
-        <f>SUM(T14:T22)</f>
-      </c>
-      <c r="U23" s="19">
-        <f>SUM(U14:U22)</f>
-      </c>
-      <c r="V23" s="19">
-        <f>SUM(V14:V22)</f>
-      </c>
-    </row>
-    <row r="25">
+        <v>72.48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="I23" s="1">
+        <f t="shared" ref="I23:V23" si="0">SUM(I14:I22)</f>
+        <v>131.51933879715</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="0"/>
+        <v>103.32104879715001</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="0"/>
+        <v>103.32104879715001</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="0"/>
+        <v>56.677599708550048</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="0"/>
+        <v>40.026509463549985</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="0"/>
+        <v>-96.714532146449955</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="0"/>
+        <v>688.64550242644998</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="0"/>
+        <v>636.78884711645003</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="0"/>
+        <v>667.44721242644994</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="0"/>
+        <v>28.19829</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" si="0"/>
+        <v>336.75807832500004</v>
+      </c>
+      <c r="V23" s="1">
+        <f t="shared" si="0"/>
+        <v>1627.9047706700001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1747,8 +2197,9 @@
       <c r="D26" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="2">
         <f>Summary!E3*XRates!C2</f>
+        <v>5322.3084263999999</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
@@ -1756,50 +2207,64 @@
       <c r="G26" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="2">
         <f>Summary!I3*XRates!C2</f>
-      </c>
-      <c r="J26" s="20">
+        <v>1773.8663878499999</v>
+      </c>
+      <c r="J26" s="2">
         <f>Summary!J3*XRates!C2</f>
-      </c>
-      <c r="K26" s="20">
+        <v>1773.8663878499999</v>
+      </c>
+      <c r="K26" s="2">
         <f>Summary!K3*XRates!C2</f>
-      </c>
-      <c r="L26" s="20">
+        <v>1773.8663878499999</v>
+      </c>
+      <c r="L26" s="2">
         <f>Summary!L3*XRates!C2</f>
-      </c>
-      <c r="M26" s="20">
+        <v>-2230.6316632499997</v>
+      </c>
+      <c r="M26" s="2">
         <f>Summary!M3*XRates!C2</f>
-      </c>
-      <c r="N26" s="20">
+        <v>-2230.6316632499997</v>
+      </c>
+      <c r="N26" s="2">
         <f>Summary!N3*XRates!C2</f>
-      </c>
-      <c r="O26" s="20">
+        <v>4460.55406365</v>
+      </c>
+      <c r="O26" s="2">
         <f>Summary!O3*XRates!C2</f>
-      </c>
-      <c r="P26" s="20">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2">
         <f>Summary!P3*XRates!C2</f>
-      </c>
-      <c r="Q26" s="20">
+        <v>2230.6316632499997</v>
+      </c>
+      <c r="Q26" s="2">
         <f>Summary!Q3*XRates!C2</f>
-      </c>
-      <c r="R26" s="20">
+        <v>2230.6316632499997</v>
+      </c>
+      <c r="R26" s="2">
         <f>Summary!R3*XRates!C2</f>
-      </c>
-      <c r="S26" s="20">
+        <v>2727.1156582499998</v>
+      </c>
+      <c r="S26" s="2">
         <f>Summary!S3*XRates!C2</f>
-      </c>
-      <c r="T26" s="20">
+        <v>0</v>
+      </c>
+      <c r="T26" s="2">
         <f>Summary!T3*XRates!C2</f>
-      </c>
-      <c r="U26" s="20">
+        <v>0</v>
+      </c>
+      <c r="U26" s="2">
         <f>Summary!U3*XRates!C2</f>
-      </c>
-      <c r="V26" s="20">
+        <v>0</v>
+      </c>
+      <c r="V26" s="2">
         <f>Summary!V3*XRates!C2</f>
-      </c>
-    </row>
-    <row r="27">
+        <v>7187.6697218999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1812,8 +2277,9 @@
       <c r="D27" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="2">
         <f>Summary!E4*XRates!C3</f>
+        <v>1001.8337756249999</v>
       </c>
       <c r="F27" t="s">
         <v>20</v>
@@ -1821,50 +2287,64 @@
       <c r="G27" t="s">
         <v>27</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="2">
         <f>Summary!I4*XRates!C3</f>
-      </c>
-      <c r="J27" s="21">
+        <v>334.06280234999997</v>
+      </c>
+      <c r="J27" s="2">
         <f>Summary!J4*XRates!C3</f>
-      </c>
-      <c r="K27" s="21">
+        <v>334.06280234999997</v>
+      </c>
+      <c r="K27" s="2">
         <f>Summary!K4*XRates!C3</f>
-      </c>
-      <c r="L27" s="21">
+        <v>334.06280234999997</v>
+      </c>
+      <c r="L27" s="2">
         <f>Summary!L4*XRates!C3</f>
-      </c>
-      <c r="M27" s="21">
+        <v>-1695.8474743499999</v>
+      </c>
+      <c r="M27" s="2">
         <f>Summary!M4*XRates!C3</f>
-      </c>
-      <c r="N27" s="21">
+        <v>-1695.8474743499999</v>
+      </c>
+      <c r="N27" s="2">
         <f>Summary!N4*XRates!C3</f>
-      </c>
-      <c r="O27" s="21">
+        <v>3391.6949486999997</v>
+      </c>
+      <c r="O27" s="2">
         <f>Summary!O4*XRates!C3</f>
-      </c>
-      <c r="P27" s="21">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
         <f>Summary!P4*XRates!C3</f>
-      </c>
-      <c r="Q27" s="21">
+        <v>1695.8474743499999</v>
+      </c>
+      <c r="Q27" s="2">
         <f>Summary!Q4*XRates!C3</f>
-      </c>
-      <c r="R27" s="21">
+        <v>1695.8474743499999</v>
+      </c>
+      <c r="R27" s="2">
         <f>Summary!R4*XRates!C3</f>
-      </c>
-      <c r="S27" s="21">
+        <v>1695.8474743499999</v>
+      </c>
+      <c r="S27" s="2">
         <f>Summary!S4*XRates!C3</f>
-      </c>
-      <c r="T27" s="21">
+        <v>0</v>
+      </c>
+      <c r="T27" s="2">
         <f>Summary!T4*XRates!C3</f>
-      </c>
-      <c r="U27" s="21">
+        <v>0</v>
+      </c>
+      <c r="U27" s="2">
         <f>Summary!U4*XRates!C3</f>
-      </c>
-      <c r="V27" s="21">
+        <v>0</v>
+      </c>
+      <c r="V27" s="2">
         <f>Summary!V4*XRates!C3</f>
-      </c>
-    </row>
-    <row r="28">
+        <v>5086.8331601999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1877,8 +2357,9 @@
       <c r="D28" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="2">
         <f>Summary!E5*XRates!C4</f>
+        <v>3000</v>
       </c>
       <c r="F28" t="s">
         <v>20</v>
@@ -1886,50 +2367,64 @@
       <c r="G28" t="s">
         <v>27</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="2">
         <f>Summary!I5*XRates!C4</f>
-      </c>
-      <c r="J28" s="22">
+        <v>1000</v>
+      </c>
+      <c r="J28" s="2">
         <f>Summary!J5*XRates!C4</f>
-      </c>
-      <c r="K28" s="22">
+        <v>1000</v>
+      </c>
+      <c r="K28" s="2">
         <f>Summary!K5*XRates!C4</f>
-      </c>
-      <c r="L28" s="22">
+        <v>1000</v>
+      </c>
+      <c r="L28" s="2">
         <f>Summary!L5*XRates!C4</f>
-      </c>
-      <c r="M28" s="22">
+        <v>-21133.5</v>
+      </c>
+      <c r="M28" s="2">
         <f>Summary!M5*XRates!C4</f>
-      </c>
-      <c r="N28" s="22">
+        <v>1853</v>
+      </c>
+      <c r="N28" s="2">
         <f>Summary!N5*XRates!C4</f>
-      </c>
-      <c r="O28" s="22">
+        <v>19280.5</v>
+      </c>
+      <c r="O28" s="2">
         <f>Summary!O5*XRates!C4</f>
-      </c>
-      <c r="P28" s="22">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
         <f>Summary!P5*XRates!C4</f>
-      </c>
-      <c r="Q28" s="22">
+        <v>21133.5</v>
+      </c>
+      <c r="Q28" s="2">
         <f>Summary!Q5*XRates!C4</f>
-      </c>
-      <c r="R28" s="22">
+        <v>19882</v>
+      </c>
+      <c r="R28" s="2">
         <f>Summary!R5*XRates!C4</f>
-      </c>
-      <c r="S28" s="22">
+        <v>21133.5</v>
+      </c>
+      <c r="S28" s="2">
         <f>Summary!S5*XRates!C4</f>
-      </c>
-      <c r="T28" s="22">
+        <v>0</v>
+      </c>
+      <c r="T28" s="2">
         <f>Summary!T5*XRates!C4</f>
-      </c>
-      <c r="U28" s="22">
+        <v>0</v>
+      </c>
+      <c r="U28" s="2">
         <f>Summary!U5*XRates!C4</f>
-      </c>
-      <c r="V28" s="22">
+        <v>16735</v>
+      </c>
+      <c r="V28" s="2">
         <f>Summary!V5*XRates!C4</f>
-      </c>
-    </row>
-    <row r="29">
+        <v>45414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1942,8 +2437,9 @@
       <c r="D29" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="2">
         <f>Summary!E6*XRates!C5</f>
+        <v>1500</v>
       </c>
       <c r="F29" t="s">
         <v>20</v>
@@ -1951,50 +2447,64 @@
       <c r="G29" t="s">
         <v>27</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="2">
         <f>Summary!I6*XRates!C5</f>
-      </c>
-      <c r="J29" s="23">
+        <v>500</v>
+      </c>
+      <c r="J29" s="2">
         <f>Summary!J6*XRates!C5</f>
-      </c>
-      <c r="K29" s="23">
+        <v>500</v>
+      </c>
+      <c r="K29" s="2">
         <f>Summary!K6*XRates!C5</f>
-      </c>
-      <c r="L29" s="23">
+        <v>500</v>
+      </c>
+      <c r="L29" s="2">
         <f>Summary!L6*XRates!C5</f>
-      </c>
-      <c r="M29" s="23">
+        <v>23833.33</v>
+      </c>
+      <c r="M29" s="2">
         <f>Summary!M6*XRates!C5</f>
-      </c>
-      <c r="N29" s="23">
+        <v>4833.33</v>
+      </c>
+      <c r="N29" s="2">
         <f>Summary!N6*XRates!C5</f>
-      </c>
-      <c r="O29" s="23">
+        <v>-28666.67</v>
+      </c>
+      <c r="O29" s="2">
         <f>Summary!O6*XRates!C5</f>
-      </c>
-      <c r="P29" s="23">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2">
         <f>Summary!P6*XRates!C5</f>
-      </c>
-      <c r="Q29" s="23">
+        <v>2166.67</v>
+      </c>
+      <c r="Q29" s="2">
         <f>Summary!Q6*XRates!C5</f>
-      </c>
-      <c r="R29" s="23">
+        <v>2166.67</v>
+      </c>
+      <c r="R29" s="2">
         <f>Summary!R6*XRates!C5</f>
-      </c>
-      <c r="S29" s="23">
+        <v>2166.67</v>
+      </c>
+      <c r="S29" s="2">
         <f>Summary!S6*XRates!C5</f>
-      </c>
-      <c r="T29" s="23">
+        <v>0</v>
+      </c>
+      <c r="T29" s="2">
         <f>Summary!T6*XRates!C5</f>
-      </c>
-      <c r="U29" s="23">
+        <v>0</v>
+      </c>
+      <c r="U29" s="2">
         <f>Summary!U6*XRates!C5</f>
-      </c>
-      <c r="V29" s="23">
+        <v>0</v>
+      </c>
+      <c r="V29" s="2">
         <f>Summary!V6*XRates!C5</f>
-      </c>
-    </row>
-    <row r="30">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -2007,8 +2517,9 @@
       <c r="D30" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="2">
         <f>Summary!E7*XRates!C6</f>
+        <v>2000</v>
       </c>
       <c r="F30" t="s">
         <v>18</v>
@@ -2016,50 +2527,64 @@
       <c r="G30" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I30" s="2">
         <f>Summary!I7*XRates!C6</f>
-      </c>
-      <c r="J30" s="24">
+        <v>2000</v>
+      </c>
+      <c r="J30" s="2">
         <f>Summary!J7*XRates!C6</f>
-      </c>
-      <c r="K30" s="24">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
         <f>Summary!K7*XRates!C6</f>
-      </c>
-      <c r="L30" s="24">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
         <f>Summary!L7*XRates!C6</f>
-      </c>
-      <c r="M30" s="24">
+        <v>-1250</v>
+      </c>
+      <c r="M30" s="2">
         <f>Summary!M7*XRates!C6</f>
-      </c>
-      <c r="N30" s="24">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
         <f>Summary!N7*XRates!C6</f>
-      </c>
-      <c r="O30" s="24">
+        <v>1250</v>
+      </c>
+      <c r="O30" s="2">
         <f>Summary!O7*XRates!C6</f>
-      </c>
-      <c r="P30" s="24">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
         <f>Summary!P7*XRates!C6</f>
-      </c>
-      <c r="Q30" s="24">
+        <v>3250</v>
+      </c>
+      <c r="Q30" s="2">
         <f>Summary!Q7*XRates!C6</f>
-      </c>
-      <c r="R30" s="24">
+        <v>1250</v>
+      </c>
+      <c r="R30" s="2">
         <f>Summary!R7*XRates!C6</f>
-      </c>
-      <c r="S30" s="24">
+        <v>1250</v>
+      </c>
+      <c r="S30" s="2">
         <f>Summary!S7*XRates!C6</f>
-      </c>
-      <c r="T30" s="24">
+        <v>0</v>
+      </c>
+      <c r="T30" s="2">
         <f>Summary!T7*XRates!C6</f>
-      </c>
-      <c r="U30" s="24">
+        <v>2000</v>
+      </c>
+      <c r="U30" s="2">
         <f>Summary!U7*XRates!C6</f>
-      </c>
-      <c r="V30" s="24">
+        <v>1250</v>
+      </c>
+      <c r="V30" s="2">
         <f>Summary!V7*XRates!C6</f>
-      </c>
-    </row>
-    <row r="31">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -2072,8 +2597,9 @@
       <c r="D31" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="2">
         <f>Summary!E8*XRates!C7</f>
+        <v>5900</v>
       </c>
       <c r="F31" t="s">
         <v>19</v>
@@ -2084,50 +2610,64 @@
       <c r="H31" t="s">
         <v>44</v>
       </c>
-      <c r="I31" s="25">
+      <c r="I31" s="2">
         <f>Summary!I8*XRates!C7</f>
-      </c>
-      <c r="J31" s="25">
+        <v>1966.67</v>
+      </c>
+      <c r="J31" s="2">
         <f>Summary!J8*XRates!C7</f>
-      </c>
-      <c r="K31" s="25">
+        <v>1966.67</v>
+      </c>
+      <c r="K31" s="2">
         <f>Summary!K8*XRates!C7</f>
-      </c>
-      <c r="L31" s="25">
+        <v>1966.67</v>
+      </c>
+      <c r="L31" s="2">
         <f>Summary!L8*XRates!C7</f>
-      </c>
-      <c r="M31" s="25">
+        <v>-1966.67</v>
+      </c>
+      <c r="M31" s="2">
         <f>Summary!M8*XRates!C7</f>
-      </c>
-      <c r="N31" s="25">
+        <v>3933.33</v>
+      </c>
+      <c r="N31" s="2">
         <f>Summary!N8*XRates!C7</f>
-      </c>
-      <c r="O31" s="25">
+        <v>-1966.67</v>
+      </c>
+      <c r="O31" s="2">
         <f>Summary!O8*XRates!C7</f>
-      </c>
-      <c r="P31" s="25">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2">
         <f>Summary!P8*XRates!C7</f>
-      </c>
-      <c r="Q31" s="25">
+        <v>1966.67</v>
+      </c>
+      <c r="Q31" s="2">
         <f>Summary!Q8*XRates!C7</f>
-      </c>
-      <c r="R31" s="25">
+        <v>1966.67</v>
+      </c>
+      <c r="R31" s="2">
         <f>Summary!R8*XRates!C7</f>
-      </c>
-      <c r="S31" s="25">
+        <v>1966.67</v>
+      </c>
+      <c r="S31" s="2">
         <f>Summary!S8*XRates!C7</f>
-      </c>
-      <c r="T31" s="25">
+        <v>0</v>
+      </c>
+      <c r="T31" s="2">
         <f>Summary!T8*XRates!C7</f>
-      </c>
-      <c r="U31" s="25">
+        <v>0</v>
+      </c>
+      <c r="U31" s="2">
         <f>Summary!U8*XRates!C7</f>
-      </c>
-      <c r="V31" s="25">
+        <v>5900</v>
+      </c>
+      <c r="V31" s="2">
         <f>Summary!V8*XRates!C7</f>
-      </c>
-    </row>
-    <row r="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -2140,8 +2680,9 @@
       <c r="D32" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E32" s="2">
         <f>Summary!E9*XRates!C8</f>
+        <v>9530</v>
       </c>
       <c r="F32" t="s">
         <v>49</v>
@@ -2152,50 +2693,64 @@
       <c r="H32" t="s">
         <v>51</v>
       </c>
-      <c r="I32" s="26">
+      <c r="I32" s="2">
         <f>Summary!I9*XRates!C8</f>
-      </c>
-      <c r="J32" s="26">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
         <f>Summary!J9*XRates!C8</f>
-      </c>
-      <c r="K32" s="26">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
         <f>Summary!K9*XRates!C8</f>
-      </c>
-      <c r="L32" s="26">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
         <f>Summary!L9*XRates!C8</f>
-      </c>
-      <c r="M32" s="26">
+        <v>4604</v>
+      </c>
+      <c r="M32" s="2">
         <f>Summary!M9*XRates!C8</f>
-      </c>
-      <c r="N32" s="26">
+        <v>-6533</v>
+      </c>
+      <c r="N32" s="2">
         <f>Summary!N9*XRates!C8</f>
-      </c>
-      <c r="O32" s="26">
+        <v>1929</v>
+      </c>
+      <c r="O32" s="2">
         <f>Summary!O9*XRates!C8</f>
-      </c>
-      <c r="P32" s="26">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2">
         <f>Summary!P9*XRates!C8</f>
-      </c>
-      <c r="Q32" s="26">
+        <v>4926</v>
+      </c>
+      <c r="Q32" s="2">
         <f>Summary!Q9*XRates!C8</f>
-      </c>
-      <c r="R32" s="26">
+        <v>4926</v>
+      </c>
+      <c r="R32" s="2">
         <f>Summary!R9*XRates!C8</f>
-      </c>
-      <c r="S32" s="26">
+        <v>4926</v>
+      </c>
+      <c r="S32" s="2">
         <f>Summary!S9*XRates!C8</f>
-      </c>
-      <c r="T32" s="26">
+        <v>0</v>
+      </c>
+      <c r="T32" s="2">
         <f>Summary!T9*XRates!C8</f>
-      </c>
-      <c r="U32" s="26">
+        <v>0</v>
+      </c>
+      <c r="U32" s="2">
         <f>Summary!U9*XRates!C8</f>
-      </c>
-      <c r="V32" s="26">
+        <v>0</v>
+      </c>
+      <c r="V32" s="2">
         <f>Summary!V9*XRates!C8</f>
-      </c>
-    </row>
-    <row r="33">
+        <v>14778</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -2208,8 +2763,9 @@
       <c r="D33" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="2">
         <f>Summary!E10*XRates!C9</f>
+        <v>120</v>
       </c>
       <c r="F33" t="s">
         <v>20</v>
@@ -2217,50 +2773,64 @@
       <c r="G33" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="27">
+      <c r="I33" s="2">
         <f>Summary!I10*XRates!C9</f>
-      </c>
-      <c r="J33" s="27">
+        <v>40</v>
+      </c>
+      <c r="J33" s="2">
         <f>Summary!J10*XRates!C9</f>
-      </c>
-      <c r="K33" s="27">
+        <v>40</v>
+      </c>
+      <c r="K33" s="2">
         <f>Summary!K10*XRates!C9</f>
-      </c>
-      <c r="L33" s="27">
+        <v>40</v>
+      </c>
+      <c r="L33" s="2">
         <f>Summary!L10*XRates!C9</f>
-      </c>
-      <c r="M33" s="27">
+        <v>5572.83</v>
+      </c>
+      <c r="M33" s="2">
         <f>Summary!M10*XRates!C9</f>
-      </c>
-      <c r="N33" s="27">
+        <v>4392.33</v>
+      </c>
+      <c r="N33" s="2">
         <f>Summary!N10*XRates!C9</f>
-      </c>
-      <c r="O33" s="27">
+        <v>-9965.17</v>
+      </c>
+      <c r="O33" s="2">
         <f>Summary!O10*XRates!C9</f>
-      </c>
-      <c r="P33" s="27">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2">
         <f>Summary!P10*XRates!C9</f>
-      </c>
-      <c r="Q33" s="27">
+        <v>9760.17</v>
+      </c>
+      <c r="Q33" s="2">
         <f>Summary!Q10*XRates!C9</f>
-      </c>
-      <c r="R33" s="27">
+        <v>9333.67</v>
+      </c>
+      <c r="R33" s="2">
         <f>Summary!R10*XRates!C9</f>
-      </c>
-      <c r="S33" s="27">
+        <v>9760.17</v>
+      </c>
+      <c r="S33" s="2">
         <f>Summary!S10*XRates!C9</f>
-      </c>
-      <c r="T33" s="27">
+        <v>0</v>
+      </c>
+      <c r="T33" s="2">
         <f>Summary!T10*XRates!C9</f>
-      </c>
-      <c r="U33" s="27">
+        <v>0</v>
+      </c>
+      <c r="U33" s="2">
         <f>Summary!U10*XRates!C9</f>
-      </c>
-      <c r="V33" s="27">
+        <v>0</v>
+      </c>
+      <c r="V33" s="2">
         <f>Summary!V10*XRates!C9</f>
-      </c>
-    </row>
-    <row r="34">
+        <v>28854</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -2273,8 +2843,9 @@
       <c r="D34" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E34" s="2">
         <f>Summary!E11*XRates!C10</f>
+        <v>5140.7371367999995</v>
       </c>
       <c r="F34" t="s">
         <v>20</v>
@@ -2285,102 +2856,122 @@
       <c r="H34" t="s">
         <v>60</v>
       </c>
-      <c r="I34" s="28">
+      <c r="I34" s="2">
         <f>Summary!I11*XRates!C10</f>
-      </c>
-      <c r="J34" s="28">
+        <v>1713.5790455999997</v>
+      </c>
+      <c r="J34" s="2">
         <f>Summary!J11*XRates!C10</f>
-      </c>
-      <c r="K34" s="28">
+        <v>1713.5790455999997</v>
+      </c>
+      <c r="K34" s="2">
         <f>Summary!K11*XRates!C10</f>
-      </c>
-      <c r="L34" s="28">
+        <v>1713.5790455999997</v>
+      </c>
+      <c r="L34" s="2">
         <f>Summary!L11*XRates!C10</f>
-      </c>
-      <c r="M34" s="28">
+        <v>-1713.5790455999997</v>
+      </c>
+      <c r="M34" s="2">
         <f>Summary!M11*XRates!C10</f>
-      </c>
-      <c r="N34" s="28">
+        <v>-1713.5790455999997</v>
+      </c>
+      <c r="N34" s="2">
         <f>Summary!N11*XRates!C10</f>
-      </c>
-      <c r="O34" s="28">
+        <v>3427.1580911999995</v>
+      </c>
+      <c r="O34" s="2">
         <f>Summary!O11*XRates!C10</f>
-      </c>
-      <c r="P34" s="28">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2">
         <f>Summary!P11*XRates!C10</f>
-      </c>
-      <c r="Q34" s="28">
+        <v>1713.5790455999997</v>
+      </c>
+      <c r="Q34" s="2">
         <f>Summary!Q11*XRates!C10</f>
-      </c>
-      <c r="R34" s="28">
+        <v>1713.5790455999997</v>
+      </c>
+      <c r="R34" s="2">
         <f>Summary!R11*XRates!C10</f>
-      </c>
-      <c r="S34" s="28">
+        <v>1713.5790455999997</v>
+      </c>
+      <c r="S34" s="2">
         <f>Summary!S11*XRates!C10</f>
-      </c>
-      <c r="T34" s="28">
+        <v>0</v>
+      </c>
+      <c r="T34" s="2">
         <f>Summary!T11*XRates!C10</f>
-      </c>
-      <c r="U34" s="28">
+        <v>0</v>
+      </c>
+      <c r="U34" s="2">
         <f>Summary!U11*XRates!C10</f>
-      </c>
-      <c r="V34" s="28">
+        <v>0</v>
+      </c>
+      <c r="V34" s="2">
         <f>Summary!V11*XRates!C10</f>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35" s="29">
-        <f>SUM(I26:I34)</f>
-      </c>
-      <c r="J35" s="29">
-        <f>SUM(J26:J34)</f>
-      </c>
-      <c r="K35" s="29">
-        <f>SUM(K26:K34)</f>
-      </c>
-      <c r="L35" s="29">
-        <f>SUM(L26:L34)</f>
-      </c>
-      <c r="M35" s="29">
-        <f>SUM(M26:M34)</f>
-      </c>
-      <c r="N35" s="29">
-        <f>SUM(N26:N34)</f>
-      </c>
-      <c r="O35" s="29">
-        <f>SUM(O26:O34)</f>
-      </c>
-      <c r="P35" s="29">
-        <f>SUM(P26:P34)</f>
-      </c>
-      <c r="Q35" s="29">
-        <f>SUM(Q26:Q34)</f>
-      </c>
-      <c r="R35" s="29">
-        <f>SUM(R26:R34)</f>
-      </c>
-      <c r="S35" s="29">
-        <f>SUM(S26:S34)</f>
-      </c>
-      <c r="T35" s="29">
-        <f>SUM(T26:T34)</f>
-      </c>
-      <c r="U35" s="29">
-        <f>SUM(U26:U34)</f>
-      </c>
-      <c r="V35" s="29">
-        <f>SUM(V26:V34)</f>
+        <v>5140.7371367999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="I35" s="2">
+        <f t="shared" ref="I35:V35" si="1">SUM(I26:I34)</f>
+        <v>9328.1782358</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="1"/>
+        <v>7328.1782358</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" si="1"/>
+        <v>7328.1782358</v>
+      </c>
+      <c r="L35" s="2">
+        <f t="shared" si="1"/>
+        <v>4019.9318168000027</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" si="1"/>
+        <v>2838.9318168000009</v>
+      </c>
+      <c r="N35" s="2">
+        <f t="shared" si="1"/>
+        <v>-6859.6028964500001</v>
+      </c>
+      <c r="O35" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="2">
+        <f t="shared" si="1"/>
+        <v>48843.068183199997</v>
+      </c>
+      <c r="Q35" s="2">
+        <f t="shared" si="1"/>
+        <v>45165.068183199997</v>
+      </c>
+      <c r="R35" s="2">
+        <f t="shared" si="1"/>
+        <v>47339.5521782</v>
+      </c>
+      <c r="S35" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="2">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="U35" s="2">
+        <f t="shared" si="1"/>
+        <v>23885</v>
+      </c>
+      <c r="V35" s="2">
+        <f t="shared" si="1"/>
+        <v>115461.2400189</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>